--- a/tests/resources/test_api.xlsx
+++ b/tests/resources/test_api.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>MESSAGE ID</t>
   </si>
@@ -83,12 +83,24 @@
     <t>6281317186988</t>
   </si>
   <si>
+    <t>500+0+0+0</t>
+  </si>
+  <si>
+    <t>UNDELIVERED (CHARGED)</t>
+  </si>
+  <si>
     <t>5GPI2017-11-03 07:23:18.260.SYjXX</t>
   </si>
   <si>
     <t>6281311181241</t>
   </si>
   <si>
+    <t>10+0+0+0</t>
+  </si>
+  <si>
+    <t>UNDELIVERED (UNCHARGED)</t>
+  </si>
+  <si>
     <t>5GPI2017-11-03 07:23:18.352.i2h0e</t>
   </si>
   <si>
@@ -102,6 +114,9 @@
   </si>
   <si>
     <t>Selamat! Anda terpilih mendapatkan pembiayaan Gadget di toko POINT 2000,cukup bayar adm 299rb. Cek lokasi goo.gl/f1smn4 Hubungi Bagus 081384526384</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -219,15 +234,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,10 +329,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
@@ -337,19 +355,19 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -367,15 +385,15 @@
         <v>19</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -407,13 +425,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -437,6 +455,41 @@
         <v>19</v>
       </c>
       <c r="K6" s="2" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="n">
         <v>195</v>
       </c>
     </row>

--- a/tests/resources/test_api.xlsx
+++ b/tests/resources/test_api.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>MESSAGE ID</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>DESCRIPTION CODE</t>
+  </si>
+  <si>
+    <t>RECEIVE_DATETIME</t>
   </si>
   <si>
     <t>SEND DATETIME</t>
@@ -126,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -153,6 +156,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -204,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,7 +222,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -234,10 +247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -248,7 +261,7 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -264,7 +277,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -282,214 +295,235 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="L3" s="3" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>195</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="n">
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>195</v>
       </c>
     </row>
